--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20170926" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>~</t>
   </si>
@@ -822,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,9 +872,48 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -901,53 +941,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1299,124 +1306,124 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="36" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="26" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="27"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1429,8 +1436,8 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -1633,15 +1640,15 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="11"/>
@@ -1655,33 +1662,26 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A19:N19"/>
@@ -1698,6 +1698,467 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860" activeTab="1"/>
@@ -571,8 +571,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,17 +872,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,65 +944,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,7 +1016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,10 +1048,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,7 +1082,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1259,14 +1257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
@@ -1285,7 +1283,7 @@
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1305,125 +1303,125 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="41" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="3.95" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37" t="s">
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="23"/>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1436,10 +1434,10 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1459,7 +1457,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="21.95" customHeight="1">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1479,7 +1477,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="21.95" customHeight="1">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -1499,7 +1497,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="21.95" customHeight="1">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -1519,7 +1517,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="21.95" customHeight="1">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1539,7 +1537,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="21.95" customHeight="1">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1559,7 +1557,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="21.95" customHeight="1">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -1579,7 +1577,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="21.95" customHeight="1">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -1599,7 +1597,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="21.95" customHeight="1">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -1619,7 +1617,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="21.95" customHeight="1">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -1639,16 +1637,16 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:14" ht="28.7" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="11"/>
@@ -1661,27 +1659,34 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:14" ht="27" customHeight="1">
+      <c r="A19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A19:N19"/>
@@ -1698,13 +1703,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
@@ -1713,14 +1711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
@@ -1739,7 +1737,7 @@
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1759,141 +1757,141 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="41" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="3.95" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37" t="s">
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="17" t="s">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1904,16 +1902,16 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="43"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1924,16 +1922,16 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="43"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.95" customHeight="1">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -1944,16 +1942,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="43"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="21.95" customHeight="1">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -1964,16 +1962,16 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="43"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="21.95" customHeight="1">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1984,16 +1982,16 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="43"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -2004,16 +2002,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="43"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -2024,16 +2022,16 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="43"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.95" customHeight="1">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -2044,16 +2042,16 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="43"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="21.95" customHeight="1">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -2064,16 +2062,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="43"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -2084,25 +2082,25 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.7" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="11"/>
@@ -2115,27 +2113,37 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:14" ht="27" customHeight="1">
+      <c r="A19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -2149,16 +2157,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{432E8B91-C3A1-EE4F-B5D1-020558057253}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>~</t>
   </si>
@@ -571,19 +572,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -881,9 +882,39 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,42 +954,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,7 +975,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1016,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,9 +1049,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,6 +1101,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,33 +1294,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.45" customHeight="1">
+    <row r="1" spans="1:14" ht="17.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1304,124 +1341,124 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="41" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="31" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="3.95" customHeight="1">
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="4" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1434,10 +1471,10 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" ht="22" customHeight="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1457,7 +1494,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1">
+    <row r="9" spans="1:14" ht="22" customHeight="1">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1477,7 +1514,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1">
+    <row r="10" spans="1:14" ht="22" customHeight="1">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -1497,7 +1534,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1">
+    <row r="11" spans="1:14" ht="22" customHeight="1">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -1517,7 +1554,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1">
+    <row r="12" spans="1:14" ht="22" customHeight="1">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1537,7 +1574,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1">
+    <row r="13" spans="1:14" ht="22" customHeight="1">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1557,7 +1594,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1">
+    <row r="14" spans="1:14" ht="22" customHeight="1">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -1577,7 +1614,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1">
+    <row r="15" spans="1:14" ht="22" customHeight="1">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -1597,7 +1634,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1">
+    <row r="16" spans="1:14" ht="22" customHeight="1">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -1617,7 +1654,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="21.95" customHeight="1">
+    <row r="17" spans="1:14" ht="22" customHeight="1">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -1637,11 +1674,11 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" ht="28.7" customHeight="1">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:14" ht="28.75" customHeight="1">
+      <c r="A18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18" t="s">
         <v>31</v>
@@ -1660,33 +1697,26 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="27" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A19:N19"/>
@@ -1703,6 +1733,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
@@ -1711,33 +1748,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:N17"/>
+      <selection activeCell="A17" sqref="A9:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.45" customHeight="1">
+    <row r="1" spans="1:14" ht="17.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1758,124 +1795,124 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="41" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="31" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="3.95" customHeight="1">
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="4" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
@@ -1888,10 +1925,10 @@
       <c r="L7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" ht="22" customHeight="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1902,7 +1939,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1911,252 +1948,72 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A17" s="6">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" ht="28.7" customHeight="1">
-      <c r="A18" s="29" t="s">
+    <row r="9" spans="1:14" ht="28.75" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="27" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1">
+      <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
-    </row>
-    <row r="20" spans="1:14" ht="11.25" customHeight="1"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A10:N10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{432E8B91-C3A1-EE4F-B5D1-020558057253}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{748330B8-FB76-964B-96D2-A1E3949E0D6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +885,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,65 +948,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,124 +1350,124 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="41" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="4" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1471,8 +1480,8 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="22" customHeight="1">
       <c r="A8" s="6">
@@ -1675,10 +1684,10 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="28.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18" t="s">
         <v>31</v>
@@ -1697,26 +1706,33 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="27" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A19:N19"/>
@@ -1733,13 +1749,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
@@ -1752,7 +1761,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A9:XFD17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1795,124 +1804,124 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="41" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="4" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
@@ -1925,8 +1934,8 @@
       <c r="L7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="22" customHeight="1">
       <c r="A8" s="6">
@@ -1936,9 +1945,9 @@
         <v>0</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="19"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1949,18 +1958,18 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="28.75" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1971,26 +1980,36 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="27" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -2004,16 +2023,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{748330B8-FB76-964B-96D2-A1E3949E0D6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>~</t>
   </si>
@@ -566,25 +565,41 @@
       </rPr>
       <t>累计同规格</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产设备： AA-EQM-032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">环境温度：   ℃           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对湿度：  %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -671,6 +686,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -824,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,9 +907,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -927,48 +985,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -984,7 +1015,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1059,23 +1090,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1111,23 +1125,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1303,33 +1300,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" customHeight="1">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1349,125 +1346,125 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="42" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="32" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="N3" s="45"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="41" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34" t="s">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" ht="4" customHeight="1">
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="40"/>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1480,10 +1477,10 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" ht="22" customHeight="1">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1503,7 +1500,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="22" customHeight="1">
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1523,7 +1520,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="22" customHeight="1">
+    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -1543,7 +1540,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="22" customHeight="1">
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -1563,7 +1560,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14" ht="22" customHeight="1">
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1583,7 +1580,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14" ht="22" customHeight="1">
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1603,7 +1600,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" ht="22" customHeight="1">
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -1623,7 +1620,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14" ht="22" customHeight="1">
+    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -1643,7 +1640,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:14" ht="22" customHeight="1">
+    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -1663,7 +1660,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="22" customHeight="1">
+    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -1683,11 +1680,11 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" ht="28.75" customHeight="1">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18" t="s">
         <v>31</v>
@@ -1705,34 +1702,27 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" ht="27" customHeight="1">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="11.25" customHeight="1"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A19:N19"/>
@@ -1749,6 +1739,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
@@ -1757,33 +1754,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" customHeight="1">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1803,125 +1800,125 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="42" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="32" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="N3" s="45"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" ht="4" customHeight="1">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="40"/>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
@@ -1934,10 +1931,10 @@
       <c r="L7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" ht="22" customHeight="1">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1947,7 +1944,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="19"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1957,19 +1954,19 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="28.75" customHeight="1">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1979,37 +1976,27 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="27" customHeight="1">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" ht="11.25" customHeight="1"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+    </row>
+    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -2023,6 +2010,16 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R09 吹膜工序生产和检验记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>~</t>
   </si>
@@ -581,6 +581,40 @@
   </si>
   <si>
     <t>复核人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计同规格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计同规格</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,12 +944,63 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,65 +1013,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1347,124 +1381,124 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="44" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="45"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="28"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1477,8 +1511,8 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -1681,10 +1715,10 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18" t="s">
         <v>31</v>
@@ -1703,26 +1737,33 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A19:N19"/>
@@ -1739,13 +1780,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
@@ -1758,7 +1792,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1801,54 +1835,54 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="44" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="45"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="47" t="s">
         <v>32</v>
       </c>
@@ -1873,52 +1907,52 @@
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
@@ -1931,8 +1965,8 @@
       <c r="L7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -1955,18 +1989,18 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="22"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1977,26 +2011,36 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -2010,16 +2054,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.43307086614173229" top="0.61" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.14000000000000001"/>
